--- a/biology/Zoologie/Dendrolagus_mayri/Dendrolagus_mayri.xlsx
+++ b/biology/Zoologie/Dendrolagus_mayri/Dendrolagus_mayri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrolagus mayri est une espèce de marsupial de la famille des Macropodidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon ne se rencontre qu’en Indonésie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon ne se rencontre qu’en Indonésie.
 </t>
         </is>
       </c>
@@ -568,11 +584,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dendrolagus mayri Rothschild &amp; Dollman, 1933[2].
-Étymologie
-Il a été nommé en l'honneur d'Ernst Mayr, qui a collecté le spécimen type maintenant déposé au Natural History Museum de Londres[3]. Il a été décrit par Lord Rothschild et le capitaine Guy Dollman dans un article de 1933[4] et une illustration basée sur le seul spécimen connu a été publiée dans leur monographie de 1936 sur le genre[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dendrolagus mayri Rothschild &amp; Dollman, 1933.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dendrolagus_mayri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrolagus_mayri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé en l'honneur d'Ernst Mayr, qui a collecté le spécimen type maintenant déposé au Natural History Museum de Londres. Il a été décrit par Lord Rothschild et le capitaine Guy Dollman dans un article de 1933 et une illustration basée sur le seul spécimen connu a été publiée dans leur monographie de 1936 sur le genre.
 </t>
         </is>
       </c>
